--- a/Folder perbandingan/Perbandingan Eksperimen.xlsx
+++ b/Folder perbandingan/Perbandingan Eksperimen.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\JupyterNotebookFile\GHclone\Air-Quality-in-South-Tangerang--Indonesia-20-22\Folder perbandingan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF608FD-5E3F-4FD1-AD8C-D392D6CF004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E683352-DAE7-46AC-8A40-E241BDB321CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{616C662C-F3F5-457B-87AC-9A59EE1772CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{616C662C-F3F5-457B-87AC-9A59EE1772CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All HOCV" sheetId="1" r:id="rId1"/>
+    <sheet name="all Kfold" sheetId="2" r:id="rId2"/>
+    <sheet name="XgBoost" sheetId="4" r:id="rId3"/>
+    <sheet name="Adaboost" sheetId="3" r:id="rId4"/>
+    <sheet name="GB" sheetId="5" r:id="rId5"/>
+    <sheet name="Catboost" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -144,6 +148,15 @@
   <si>
     <t>BALANCE SMOTE</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 70:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60:40</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -363,8 +376,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -372,12 +398,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,13 +419,18 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,10 +442,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,33 +460,67 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
     <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -768,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EEA650-19F1-4DC3-BA8E-BF01C25E11D7}">
-  <dimension ref="A2:Q39"/>
+  <dimension ref="A2:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,1683 +852,1692 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.88</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.89</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.84</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.94</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0.2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>0.86</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>0.91</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>0.33</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>0.96</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>0.96</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>0.97</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>0.36130000000000001</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>88.4</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.41</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.64</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.51</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>0.46</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.6</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>0.46</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>0.61</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>0.96</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>0.84309999999999996</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>53.1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.83</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.91</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.85</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.92</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.84</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.91</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>0.93</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>0.93</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>0.96</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>0.3992</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>87.2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.84</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.89</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.84</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.93</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.84</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.91</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.33</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>0.95</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>0.95</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0.96</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>0.34410000000000002</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>87.2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.84</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.88</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.84</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.93</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.84</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>0.9</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>0.96</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.96</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.95</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>0.38840000000000002</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>86.7</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.81</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.91</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
         <v>0.87</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.89</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0.84</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>0.9</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>0.33</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.95</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>0.95</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>0.95</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>0.3574</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>86.9</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.36</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.59</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>0.34</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>0.2</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0.45</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>0.43</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>0.17</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.49</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>0.51</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>0.95</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>0.82399999999999995</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>43.4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.78</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>0.89</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.84</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.86</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>0.81</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>0.88</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>0.92</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>0.93</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>0.95</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>0.4002</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>83.8</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.83</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>0.9</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>0.5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.85</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.9</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>0.2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>0.84</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>0.9</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>0.95</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>0.95</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>0.95</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>0.33229999999999998</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>86.9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.82</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>0.91</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>0.5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.86</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.89</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>0.2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>0.84</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>0.9</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>0.96</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>0.95</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>0.96</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>0.34820000000000001</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>86.9</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0.82</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0.91</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>0.75</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>0.88</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.89</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>0.43</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0.85</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>0.9</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>0.95</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>0.95</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>0.97</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <v>0.34710000000000002</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>87.2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.41</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>0.67</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>0.33</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0.67</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>0.4</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>0.43</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>0.51</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0.5</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>0.38</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>0.48</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>0.97</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <v>0.82930000000000004</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <v>50.2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0.77</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>0.88</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>0.33</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0.81</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>0.85</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>0.43</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>0.79</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>0.86</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>0.38</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>0.92</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>0.92</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>0.96</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <v>0.39090000000000003</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <v>82.3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.83</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>0.9</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>0.75</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>0.86</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>0.89</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>0.43</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>0.84</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>0.89</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>0.95</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>0.94</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>0.97</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>86.9</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.82</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>0.9</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>0.6</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0.86</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.89</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>0.43</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>0.84</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>0.89</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>0.5</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>0.95</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>0.95</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>0.96</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <v>0.32700000000000001</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <v>86.7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="16" t="s">
+      <c r="P22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="16" t="s">
+      <c r="Q22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>0.89</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.93</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>0.98</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.92</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>0.88</v>
       </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
         <v>0.91</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>0.91</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>0.99</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>0.99</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>0.99</v>
       </c>
-      <c r="O23" s="6">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6">
+      <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5">
         <v>0.2041</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>93.8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="6" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="6">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="6">
-        <v>0.64</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G24" s="6">
-        <v>0.51</v>
+        <v>0.69</v>
       </c>
       <c r="H24" s="6">
-        <v>0.56999999999999995</v>
+        <v>0.38</v>
       </c>
       <c r="I24" s="6">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="J24" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K24" s="6">
         <v>0.46</v>
       </c>
-      <c r="K24" s="6">
-        <v>0.6</v>
-      </c>
       <c r="L24" s="6">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="M24" s="6">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="N24" s="6">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="O24" s="6">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="P24" s="6">
-        <v>0.84309999999999996</v>
+        <v>0.87029999999999996</v>
       </c>
       <c r="Q24" s="6">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="6" t="s">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.85</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.92</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.97</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.92</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>0.83</v>
       </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
         <v>0.89</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>0.87</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>0.98</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>0.98</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>0.97</v>
       </c>
-      <c r="O25" s="6">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6">
+      <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
         <v>0.22539999999999999</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>91.8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="6" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>0.9</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>0.93</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.98</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.92</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>0.89</v>
       </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
         <v>0.91</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>0.91</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>0.99</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0.99</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>0.98</v>
       </c>
-      <c r="O26" s="6">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6">
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
         <v>0.184</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="5">
         <v>94.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="6" t="s">
+      <c r="W26" s="41"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.89</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>0.93</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>0.98</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>0.92</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>0.88</v>
       </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
         <v>0.91</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>0.91</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>0.99</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>0.98</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>0.98</v>
       </c>
-      <c r="O27" s="5">
-        <v>1</v>
-      </c>
-      <c r="P27" s="5">
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
         <v>0.2147</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="4">
         <v>93.8</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>0.9</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>0.92</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>0.97</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>0.92</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>0.88</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>0.99</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>0.91</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>0.9</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>0.98</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>0.99</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>0.97</v>
       </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="7">
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6">
         <v>0.20349999999999999</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>93.2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E30" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="F30" s="7">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="G30" s="7">
-        <v>0.69</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="I30" s="7">
         <v>0.99</v>
       </c>
       <c r="J30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.2329</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.1918</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="O35" s="7">
+        <v>1</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.219</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="J36" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K30" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="L30" s="7">
+      <c r="K36" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="L37" s="7">
         <v>0.98</v>
       </c>
-      <c r="M30" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="O30" s="7">
+      <c r="M37" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="O38" s="7">
         <v>0.99</v>
       </c>
-      <c r="P30" s="7">
-        <v>0.87029999999999996</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>69.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="P38" s="7">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E39" s="7">
         <v>0.89</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F39" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H39" s="7">
         <v>0.9</v>
       </c>
-      <c r="F31" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K39" s="7">
         <v>0.89</v>
       </c>
-      <c r="H31" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-      <c r="J31" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="L31" s="7">
+      <c r="L39" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="M39" s="7">
         <v>0.98</v>
       </c>
-      <c r="M31" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="N31" s="7">
+      <c r="N39" s="7">
         <v>0.97</v>
       </c>
-      <c r="O31" s="7">
-        <v>1</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0.2329</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>91.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
-      <c r="J32" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="O32" s="7">
-        <v>1</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0.1918</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="O33" s="7">
-        <v>1</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0.20960000000000001</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>94.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.91</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="I35" s="8">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="M35" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="O35" s="8">
-        <v>1</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0.219</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.94</v>
-      </c>
-      <c r="G36" s="8">
-        <v>56</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0.71</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="O36" s="8">
-        <v>1</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0.96</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="I37" s="8">
-        <v>1</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="O37" s="8">
-        <v>1</v>
-      </c>
-      <c r="P37" s="8">
-        <v>0.25009999999999999</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0.96</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="I38" s="8">
-        <v>1</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="K38" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="N38" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="O38" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="P38" s="8">
-        <v>0.22650000000000001</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0.91</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="I39" s="8">
-        <v>1</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="K39" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="N39" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="O39" s="8">
-        <v>1</v>
-      </c>
-      <c r="P39" s="8">
+      <c r="O39" s="7">
+        <v>1</v>
+      </c>
+      <c r="P39" s="7">
         <v>0.23769999999999999</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="7">
         <v>92.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
@@ -2469,14 +2546,6 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="A34:Q34"/>
     <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2486,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10EE8B7-E048-47D0-8D18-5A4146BFF7E0}">
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,22 +2571,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2528,80 +2597,80 @@
       <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
         <v>87.3</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="13">
         <v>0.95</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="13">
         <v>0.36270000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="13">
         <v>85</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="13">
         <v>0.91</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="13">
         <v>2.4801000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="13">
         <v>84</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="13">
         <v>0.94</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="13">
         <v>0.39789999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="13">
         <v>87.8</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="13">
         <v>0.95</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="13">
         <v>0.33179999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="13">
         <v>87</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="13">
         <v>0.96</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="13">
         <v>0.36209999999999998</v>
       </c>
     </row>
@@ -2612,86 +2681,86 @@
       <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
         <v>87.2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="14">
         <v>0.95</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="14">
         <v>0.3276</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="14">
         <v>84.3</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="14">
         <v>0.92</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="14">
         <v>2.3277999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="14">
         <v>84.3</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="14">
         <v>0.94</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="14">
         <v>0.39269999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="14">
         <v>86.7</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="14">
         <v>0.96</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="14">
         <v>0.37259999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="14">
         <v>87.03</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="14">
         <v>0.96</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="14">
         <v>0.36209999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -2703,181 +2772,181 @@
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="28">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="C16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
         <v>92.1</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="11">
         <v>0.98</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="11">
         <v>0.23169999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="11">
         <v>64.5</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="11">
         <v>0.79</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="11">
         <v>0.84670000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="11">
         <v>79.900000000000006</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="11">
         <v>0.91</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="11">
         <v>0.49959999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="11">
         <v>92.4</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="11">
         <v>0.98</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="11">
         <v>0.21260000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="11">
         <v>92.2</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="11">
         <v>0.98</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="11">
         <v>0.24890000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="28">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
         <v>92.8</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="12">
         <v>0.98</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="12">
         <v>0.2203</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="12">
         <v>67.099999999999994</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="12">
         <v>0.8</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="12">
         <v>0.86739999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="12">
         <v>80.099999999999994</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="12">
         <v>0.91</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="12">
         <v>0.49859999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="12">
         <v>92.7</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="12">
         <v>0.98</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="12">
         <v>0.2084</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="12">
         <v>92.6</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="12">
         <v>0.98</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="12">
         <v>0.23860000000000001</v>
       </c>
     </row>
@@ -2895,4 +2964,2215 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006FF6F5-4E0C-40BB-AF2A-092784A03FBA}">
+  <dimension ref="D8:T27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.36130000000000001</v>
+      </c>
+      <c r="T9" s="5">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.3574</v>
+      </c>
+      <c r="T10" s="6">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="T11" s="7">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.2041</v>
+      </c>
+      <c r="T13" s="5">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="T14" s="6">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.219</v>
+      </c>
+      <c r="T15" s="7">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="28">
+        <v>5</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33">
+        <v>87.3</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0.36270000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="39">
+        <v>92.1</v>
+      </c>
+      <c r="H21" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0.23169999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="28">
+        <v>10</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="37">
+        <v>87.2</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0.3276</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39">
+        <v>92.8</v>
+      </c>
+      <c r="H25" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0.2203</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="D12:T12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1827C7A-9B4C-41B7-8DB1-AC8DE1DC4222}">
+  <dimension ref="D5:T24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="T6" s="5">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="T7" s="6">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="T8" s="7">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="T10" s="4">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="J11" s="42">
+        <v>56</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0.32</v>
+      </c>
+      <c r="L11" s="42">
+        <v>0.99</v>
+      </c>
+      <c r="M11" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="42">
+        <v>0.37</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0.97</v>
+      </c>
+      <c r="P11" s="42">
+        <v>0.71</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>0.73</v>
+      </c>
+      <c r="R11" s="42">
+        <v>1</v>
+      </c>
+      <c r="S11" s="42">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="T11" s="42">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="T12" s="7">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="28">
+        <v>5</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="33">
+        <v>85</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0.91</v>
+      </c>
+      <c r="I16" s="33">
+        <v>2.4801000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35">
+        <v>84.3</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="I18" s="35">
+        <v>2.3277999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="28">
+        <v>10</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="37">
+        <v>64.5</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.79</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0.84670000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0.86739999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D9:T9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="I16:I17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FE6220-F3EF-4421-B755-BB1590F19261}">
+  <dimension ref="D6:T25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.3992</v>
+      </c>
+      <c r="T7" s="5">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.4002</v>
+      </c>
+      <c r="T8" s="6">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="T9" s="7">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="T11" s="5">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.2329</v>
+      </c>
+      <c r="T12" s="6">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="T13" s="7">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="4:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28">
+        <v>5</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="33">
+        <v>84</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="I17" s="33">
+        <v>0.39789999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="39">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="I19" s="39">
+        <v>0.49959999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="28">
+        <v>10</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="37">
+        <v>84.3</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.94</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.39269999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="39">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H23" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="I23" s="39">
+        <v>0.49859999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D10:T10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227FCC60-785A-4DDD-998A-6415B1D36959}">
+  <dimension ref="D9:T28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="T10" s="5">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="T11" s="6">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="T12" s="7">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="T14" s="5">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.1918</v>
+      </c>
+      <c r="T15" s="6">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="T16" s="7">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="28">
+        <v>5</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="33">
+        <v>87.8</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="I20" s="33">
+        <v>0.33179999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0.49959999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="28">
+        <v>10</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="37">
+        <v>86.7</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.96</v>
+      </c>
+      <c r="I24" s="37">
+        <v>0.37259999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0.49859999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D13:T13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Folder perbandingan/Perbandingan Eksperimen.xlsx
+++ b/Folder perbandingan/Perbandingan Eksperimen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\JupyterNotebookFile\GHclone\Air-Quality-in-South-Tangerang--Indonesia-20-22\Folder perbandingan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E683352-DAE7-46AC-8A40-E241BDB321CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CC465-64E6-4CAD-B1D8-A7107D66C0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{616C662C-F3F5-457B-87AC-9A59EE1772CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{616C662C-F3F5-457B-87AC-9A59EE1772CB}"/>
   </bookViews>
   <sheets>
     <sheet name="All HOCV" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Adaboost" sheetId="3" r:id="rId4"/>
     <sheet name="GB" sheetId="5" r:id="rId5"/>
     <sheet name="Catboost" sheetId="6" r:id="rId6"/>
+    <sheet name="LGBM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -400,7 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +432,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,12 +498,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,12 +505,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
@@ -508,11 +519,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -839,7 +864,7 @@
   <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:Q38"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,10 +930,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -958,8 +983,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1032,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1056,8 +1081,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1105,8 +1130,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1154,29 +1179,29 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1226,8 +1251,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1275,8 +1300,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1324,8 +1349,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1373,8 +1398,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1422,29 +1447,29 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1494,8 +1519,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1543,8 +1568,8 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
@@ -1592,8 +1617,8 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
@@ -1641,8 +1666,8 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
@@ -1743,10 +1768,10 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1796,8 +1821,8 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
@@ -1845,8 +1870,8 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
@@ -1894,8 +1919,8 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1941,11 +1966,11 @@
       <c r="Q26" s="5">
         <v>94.1</v>
       </c>
-      <c r="W26" s="41"/>
+      <c r="W26" s="18"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
@@ -1993,29 +2018,29 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2065,8 +2090,8 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="6" t="s">
         <v>16</v>
       </c>
@@ -2114,8 +2139,8 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="6" t="s">
         <v>17</v>
       </c>
@@ -2163,8 +2188,8 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="6" t="s">
         <v>18</v>
       </c>
@@ -2212,8 +2237,8 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2261,29 +2286,29 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="32"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2333,8 +2358,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -2382,8 +2407,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="7" t="s">
         <v>17</v>
       </c>
@@ -2431,8 +2456,8 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -2480,8 +2505,8 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="7" t="s">
         <v>19</v>
       </c>
@@ -2556,7 +2581,7 @@
   <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F23"/>
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,10 +2616,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="37">
         <v>5</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -2611,8 +2636,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
@@ -2627,8 +2652,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
@@ -2643,8 +2668,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
@@ -2659,8 +2684,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
@@ -2675,10 +2700,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="37">
         <v>10</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2695,8 +2720,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
@@ -2711,8 +2736,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
@@ -2727,8 +2752,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="14" t="s">
         <v>33</v>
       </c>
@@ -2743,8 +2768,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2783,10 +2808,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="36">
         <v>5</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2803,8 +2828,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2819,8 +2844,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
@@ -2835,8 +2860,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
@@ -2851,8 +2876,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
@@ -2867,10 +2892,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="36">
         <v>10</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -2887,8 +2912,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="12" t="s">
         <v>16</v>
       </c>
@@ -2903,8 +2928,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="12" t="s">
         <v>17</v>
       </c>
@@ -2919,8 +2944,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
@@ -2935,8 +2960,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="12" t="s">
         <v>19</v>
       </c>
@@ -3041,13 +3066,13 @@
       </c>
     </row>
     <row r="9" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="5">
@@ -3094,11 +3119,11 @@
       </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="6">
         <v>0.81</v>
       </c>
@@ -3143,11 +3168,11 @@
       </c>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7">
         <v>0.82</v>
       </c>
@@ -3192,32 +3217,32 @@
       </c>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32"/>
     </row>
     <row r="13" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="5">
@@ -3264,11 +3289,11 @@
       </c>
     </row>
     <row r="14" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="6">
         <v>0.9</v>
       </c>
@@ -3313,11 +3338,11 @@
       </c>
     </row>
     <row r="15" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="7">
         <v>0.91</v>
       </c>
@@ -3372,119 +3397,119 @@
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="28">
+      <c r="D19" s="36">
         <v>5</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="33">
+      <c r="F19" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="39">
         <v>87.3</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="39">
         <v>0.95</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="39">
         <v>0.36270000000000002</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="39">
+      <c r="F21" s="38"/>
+      <c r="G21" s="43">
         <v>92.1</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="43">
         <v>0.98</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="43">
         <v>0.23169999999999999</v>
       </c>
     </row>
     <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="28">
+      <c r="D23" s="36">
         <v>10</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="37">
+      <c r="F23" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="41">
         <v>87.2</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="41">
         <v>0.95</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="41">
         <v>0.3276</v>
       </c>
     </row>
     <row r="24" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="28"/>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="39">
+      <c r="F25" s="38"/>
+      <c r="G25" s="43">
         <v>92.8</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="43">
         <v>0.98</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="43">
         <v>0.2203</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G27" s="10"/>
@@ -3598,13 +3623,13 @@
       </c>
     </row>
     <row r="6" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="27" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="5">
@@ -3651,11 +3676,11 @@
       </c>
     </row>
     <row r="7" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="6">
         <v>0.36</v>
       </c>
@@ -3700,11 +3725,11 @@
       </c>
     </row>
     <row r="8" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="7">
         <v>0.41</v>
       </c>
@@ -3749,32 +3774,32 @@
       </c>
     </row>
     <row r="9" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="24"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="4">
@@ -3821,60 +3846,60 @@
       </c>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="42">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="19">
         <v>0.45</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="19">
         <v>0.45</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="19">
         <v>0.94</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="19">
         <v>56</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="19">
         <v>0.32</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="19">
         <v>0.99</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="19">
         <v>0.5</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="19">
         <v>0.37</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="19">
         <v>0.97</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="19">
         <v>0.71</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="19">
         <v>0.73</v>
       </c>
-      <c r="R11" s="42">
-        <v>1</v>
-      </c>
-      <c r="S11" s="42">
+      <c r="R11" s="19">
+        <v>1</v>
+      </c>
+      <c r="S11" s="19">
         <v>0.86199999999999999</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="19">
         <v>63.2</v>
       </c>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="7">
         <v>0.49</v>
       </c>
@@ -3940,108 +3965,108 @@
       </c>
     </row>
     <row r="16" spans="4:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="28">
+      <c r="D16" s="36">
         <v>5</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="39">
         <v>85</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="39">
         <v>0.91</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="39">
         <v>2.4801000000000002</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="28"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="35">
+      <c r="F18" s="38"/>
+      <c r="G18" s="45">
         <v>84.3</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="45">
         <v>0.92</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="45">
         <v>2.3277999999999999</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="28">
+      <c r="D20" s="36">
         <v>10</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="41">
         <v>64.5</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="41">
         <v>0.79</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="41">
         <v>0.84670000000000001</v>
       </c>
     </row>
     <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="28"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="36"/>
+      <c r="E22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="39">
+      <c r="F22" s="38"/>
+      <c r="G22" s="43">
         <v>67.099999999999994</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="43">
         <v>0.8</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="43">
         <v>0.86739999999999995</v>
       </c>
     </row>
     <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4080,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FE6220-F3EF-4421-B755-BB1590F19261}">
   <dimension ref="D6:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:T24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,13 +4173,13 @@
       </c>
     </row>
     <row r="7" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="27" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="5">
@@ -4201,11 +4226,11 @@
       </c>
     </row>
     <row r="8" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="6">
         <v>0.78</v>
       </c>
@@ -4250,11 +4275,11 @@
       </c>
     </row>
     <row r="9" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7">
         <v>0.77</v>
       </c>
@@ -4299,32 +4324,32 @@
       </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="5">
@@ -4371,11 +4396,11 @@
       </c>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="6">
         <v>0.89</v>
       </c>
@@ -4420,11 +4445,11 @@
       </c>
     </row>
     <row r="13" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="7">
         <v>0.87</v>
       </c>
@@ -4490,108 +4515,108 @@
       </c>
     </row>
     <row r="17" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="28">
+      <c r="D17" s="36">
         <v>5</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="39">
         <v>84</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="39">
         <v>0.94</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="39">
         <v>0.39789999999999998</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="39">
+      <c r="F19" s="38"/>
+      <c r="G19" s="43">
         <v>79.900000000000006</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="43">
         <v>0.91</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="43">
         <v>0.49959999999999999</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="28">
+      <c r="D21" s="36">
         <v>10</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="41">
         <v>84.3</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="41">
         <v>0.94</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="41">
         <v>0.39269999999999999</v>
       </c>
     </row>
     <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="39">
+      <c r="F23" s="38"/>
+      <c r="G23" s="43">
         <v>80.099999999999994</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="43">
         <v>0.91</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="43">
         <v>0.49859999999999999</v>
       </c>
     </row>
     <row r="24" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4630,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227FCC60-785A-4DDD-998A-6415B1D36959}">
   <dimension ref="D9:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,13 +4724,13 @@
       </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="5">
@@ -4752,11 +4777,11 @@
       </c>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="6">
         <v>0.83</v>
       </c>
@@ -4801,11 +4826,11 @@
       </c>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="7">
         <v>0.83</v>
       </c>
@@ -4850,32 +4875,32 @@
       </c>
     </row>
     <row r="13" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="24"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32"/>
     </row>
     <row r="14" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="5">
@@ -4922,11 +4947,11 @@
       </c>
     </row>
     <row r="15" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="6">
         <v>0.9</v>
       </c>
@@ -4971,11 +4996,11 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="7">
         <v>0.89</v>
       </c>
@@ -5041,108 +5066,108 @@
       </c>
     </row>
     <row r="20" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="28">
+      <c r="D20" s="36">
         <v>5</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="39">
         <v>87.8</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="39">
         <v>0.95</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="39">
         <v>0.33179999999999998</v>
       </c>
     </row>
     <row r="21" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="28"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="36"/>
+      <c r="E22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="39">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="H22" s="39">
-        <v>0.91</v>
-      </c>
-      <c r="I22" s="39">
-        <v>0.49959999999999999</v>
+      <c r="F22" s="38"/>
+      <c r="G22" s="50">
+        <v>92.4</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0.98</v>
+      </c>
+      <c r="I22" s="50">
+        <v>0.21260000000000001</v>
       </c>
     </row>
     <row r="23" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="28">
+      <c r="D24" s="36">
         <v>10</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="41">
         <v>86.7</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="41">
         <v>0.96</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="41">
         <v>0.37259999999999999</v>
       </c>
     </row>
     <row r="25" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="39">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0.91</v>
-      </c>
-      <c r="I26" s="39">
-        <v>0.49859999999999999</v>
+      <c r="F26" s="38"/>
+      <c r="G26" s="50">
+        <v>92.7</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0.98</v>
+      </c>
+      <c r="I26" s="50">
+        <v>0.2084</v>
       </c>
     </row>
     <row r="27" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5175,4 +5200,695 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFA3ED-9100-4413-A2C9-33063955B388}">
+  <dimension ref="C6:S25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="S7" s="5">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="S8" s="6">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="S9" s="7">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="49"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.2147</v>
+      </c>
+      <c r="S11" s="5">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="S12" s="6">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="S13" s="7">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="36">
+        <v>5</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="39">
+        <v>87</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="41">
+        <v>92.2</v>
+      </c>
+      <c r="G19" s="41">
+        <v>0.98</v>
+      </c>
+      <c r="H19" s="41">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="36">
+        <v>10</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="45">
+        <v>87.03</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0.96</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="43">
+        <v>92.6</v>
+      </c>
+      <c r="G23" s="43">
+        <v>0.98</v>
+      </c>
+      <c r="H23" s="43">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="3:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="3:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C10:S10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>